--- a/output/fit_clients/fit_round_45.xlsx
+++ b/output/fit_clients/fit_round_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6802469066.655677</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004116947977445871</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.326948056870023</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.333290151593268</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.6592517459289184</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.333290151593268</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6799905932.181687</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004416343411634841</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.985012226993458</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9036952654753111</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.985012226993458</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4751878538.671082</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002798567248611248</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.519823235310585</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.3944053188733078</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.519823235310585</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4228150954.077581</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005253429959839348</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.999849691435895</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8329701041564168</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.999849691435895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5444682198.914845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002182116500560369</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.658464105374269</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.849480331001</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.658464105374269</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8408148985.335418</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0008253855975229202</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.531638039265837</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.946388198310414</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.531638039265837</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>6426020868.131946</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002760253516984569</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.742006883661645</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.952684186284588</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.742006883661645</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4780255152.297726</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005096095416639434</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.049851336109739</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9207083677284237</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-4.049851336109739</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>2907669497.947879</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005207938461509624</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.134514479783011</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9445998723076841</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.134514479783011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4502586019.18286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00135672468996701</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.824222068227469</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7768533732585314</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.824222068227469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7029518040.219929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.00167870248505629</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3024749766813397</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.925685302009287</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.7033522537541742</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.925685302009287</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6510307767.723345</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002910897464940379</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.847448406922017</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.017182356937865</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.847448406922017</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7047480165.874741</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002283575538875183</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.335263566474637</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8895520878876053</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.335263566474637</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6009985443.458103</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003628748540791699</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.271272881743066</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9566690712984648</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.271272881743066</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5470996029.891971</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005432150729743719</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.232613709820791</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8955059396165389</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.232613709820791</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4974790932.546599</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003400912214354712</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.752648989501626</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9537611314485785</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.752648989501626</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4742602485.53336</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008817099460229408</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.297531416150016</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9765973862395604</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.297531416150016</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3933832986.418408</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001449086460870767</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.885201955344854</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8866963191301122</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.885201955344854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6100999792.03222</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001124813289790274</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.770608721222896</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8368036300093669</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.770608721222896</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6779569112.822036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004682520749106086</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.044923119771255</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8415528229860375</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.044923119771255</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4413068053.365837</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003787030709229634</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.9372160970472</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8550072345758443</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.9372160970472</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6264603978.821759</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001442370926094433</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.598372371360556</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8456329795277361</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.598372371360556</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5281216296.241141</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004582286988528794</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.451357659329219</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.986930654038534</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.451357659329219</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4775329589.333447</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002635009498116833</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.62299262555011</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9354780869949754</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.62299262555011</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4079220915.011312</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009820829230115797</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.79598715797391</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.494711226563638</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.010635861745314</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.494711226563638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6368954448.612117</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003285195299005728</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.034724140147269</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9194612834466317</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.034724140147269</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7028140321.153745</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004880852754884294</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.190415154901669</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8955059396165389</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.190415154901669</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7917451615.11412</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001101707100379052</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.449623512309995</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9754217591186545</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.449623512309995</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8083317237.68269</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003872571182372408</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.033757190998908</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8897556982463073</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.033757190998908</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7496959821.671876</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003098896142322803</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.083965312682544</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9577415356161664</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.083965312682544</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4985225655.821007</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001243953797782214</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.631483229306461</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9389573728026159</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.631483229306461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5086875731.070008</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002769586351761412</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.438478818375202</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8347805771933812</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.438478818375202</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6172877830.948643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.005125024188493483</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.691277491224328</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.328904339447275</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.9168404863325853</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-4.328904339447275</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>7196606187.461425</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002585052800395433</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.556575633009025</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9431284168686657</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.556575633009025</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7551756650.003328</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003707000501080361</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.160217001256064</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.004638109713331</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.160217001256064</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6509574573.36869</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005199754436210909</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.18402198835546</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.00481840000318</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.18402198835546</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4512270888.65201</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003348185949716663</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.797272967772313</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8773854716349749</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.797272967772313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4111784322.046481</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002941094403805742</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.538894091301643</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8566300714051135</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.538894091301643</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5175412939.740541</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003465441766173607</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.534706923040434</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9890087916755942</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.534706923040434</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>4812046441.788709</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001134262013880522</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.9212152474950667</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.365384385109253</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.237591062161344</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.365384385109253</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6105428660.278498</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005328291407379412</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.385903136953935</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.0613949964504</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.779125754188327</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.0613949964504</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6134756363.306083</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004613593446213335</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.464043974702418</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9246351529608323</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.464043974702418</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>7628016534.471785</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002244317330305348</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
         <v>12</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.3000979616345149</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.884482659787533</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.57791128861561</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.884482659787533</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4795035334.695475</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001586886174856572</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3355174157654102</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.446422207749826</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6857734234660674</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.446422207749826</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>8175749805.230306</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003596052084888931</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.035795224077286</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8102594903767316</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.035795224077286</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8036620291.301682</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002633033657728873</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.261554115121809</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9032942830823968</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.261554115121809</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5377053758.924942</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002296851155727566</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.229829518712782</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9632114222503823</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.229829518712782</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4026400089.621101</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005229271819349144</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.295729733844317</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8851286089040353</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.295729733844317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8597327708.752678</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002987784042105277</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.418231626396395</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.039729269022157</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.418231626396395</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5545022342.991986</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003766089509133455</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.946864119546879</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9373481371931284</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.946864119546879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6785006357.482513</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001792382894409436</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.096239142560573</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8435596345329165</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.096239142560573</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5893729527.651976</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.00218366631761458</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.178661661138821</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9136635490890642</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.178661661138821</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4254575021.637532</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003900109813968185</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.799114168001858</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8317367716729894</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.799114168001858</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6625757468.57294</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003741453758371218</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9134803281887112</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.755413103524435</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.202279948560419</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.755413103524435</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5293907477.923061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002701790927282816</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.598363543889413</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9255490357942529</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.598363543889413</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8383228907.407393</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003963045884020017</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.301888414498994</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8347805771933812</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.301888414498994</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4892896107.712392</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002537246332275784</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.514961311316061</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7838950311508791</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.514961311316061</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7489912561.283246</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002961663673925917</v>
       </c>
       <c r="G59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.972998785204547</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.87366101500726</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.972998785204547</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5511318578.169925</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00369550049664791</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.222471645064162</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8457758838175881</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.222471645064162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7240683859.404086</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003848932267073384</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4023839385466538</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.55095547575474</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7628925058572152</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.55095547575474</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5755847389.989805</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003232030092392803</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.591946635860819</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8558542593008091</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.591946635860819</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6480582538.608857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005585671835423187</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.84130542243656</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8993413534791381</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.84130542243656</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4222221096.148382</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003885817874431795</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.141262835143595</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9251575253255628</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.141262835143595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5138318435.130921</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005572669218930888</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.794987190660905</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.014626441920992</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.794987190660905</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6541891359.148833</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003307939505814185</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
         <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.380694850117622</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9112148601217818</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.380694850117622</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5485731006.119265</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004576951603982683</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7724684534302927</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.269883574645005</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.098493075187407</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-4.269883574645005</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7962620335.570604</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002395512718091859</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.877428625136898</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7274791706256289</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.877428625136898</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4478920288.468927</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001198299809781112</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.906293845395552</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.983436898683256</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.906293845395552</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6724679102.734118</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003825649972868486</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.998497524950508</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9162376057244961</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.998497524950508</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3203167098.522153</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003756690678925184</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.8184072659681486</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.515759686056636</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1.02208554750329</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.515759686056636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5783161431.089222</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002385566957352325</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.341305348909605</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.056266336389527</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.341305348909605</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5415894243.30735</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001068283235590037</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.325776693035884</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9465795832352437</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.325776693035884</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5472501751.200336</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004463627969511772</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.280550988117546</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8791044781350453</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.280550988117546</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8133121924.341476</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.002742575293525847</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>11</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.962202942057606</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8427717905465952</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.962202942057606</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5943906952.439774</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002259780312749048</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.968320146723137</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9072964397235916</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.968320146723137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6900879259.086631</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004987823969135126</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3444387475809664</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.693373708750094</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.7798968979898845</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-4.693373708750094</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7842864523.415489</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004108194997816618</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.800988037844371</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.278213421874094</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.800988037844371</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8431821692.359226</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001683835066251751</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.756574423392779</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9633994651494158</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.756574423392779</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5743025201.173889</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003099849293156415</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.2602533108147564</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.176316974714263</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5502205813992143</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.176316974714263</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6315614715.79008</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005233341052660307</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.57993836465598</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9944888488150015</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.57993836465598</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8654041556.955879</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004045880411955369</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.974920348051222</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.423506871406298</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.271494290186139</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.423506871406298</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9820712624.52319</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003652745302431184</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.421955926931026</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7804207709051276</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.421955926931026</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5667397817.595094</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005035160390521133</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>12</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3054824759363539</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.737580798600241</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.6006317617735324</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.737580798600241</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4016352794.665262</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00293160325858649</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.70492611655586</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8892125291437117</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.70492611655586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6298342528.715205</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001979155554062701</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.142721612611997</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.966465845782328</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.142721612611997</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4043883314.163383</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001153185377634926</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.557947796163227</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9433843713544771</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.557947796163227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8066916121.165452</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003844782874676252</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.94406575749651</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8253230195079405</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.94406575749651</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5199930089.678824</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003714063313656021</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.116197732225954</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9239164464488704</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.116197732225954</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7074547296.824942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003095424774090699</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.940118205725466</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9216915568062983</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.940118205725466</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5084885713.132448</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003683289247396985</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.521037942584196</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8485558996655166</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.521037942584196</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4924036520.868646</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004227160476491253</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.41800214066046</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.039613025735482</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.41800214066046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6386557519.909452</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001637886808316276</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.027951489609182</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9127377659356797</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.027951489609182</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5332027328.574491</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001465528821146567</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.70651279902932</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.040890184132443</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.70651279902932</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6228430996.959126</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002853956757963892</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.278403247243979</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9123407578159071</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.278403247243979</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>6180431587.462563</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003246903606798937</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>13</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1852470650726545</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.713910355283526</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.2837222434866052</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.713910355283526</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7639838103.286926</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003742431065721438</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>8</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.9395103494736027</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.485522916971884</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.222817806713001</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.485522916971884</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6838529804.167156</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003667165340338196</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.379347195733365</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.877729605809881</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.379347195733365</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3527402973.603031</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005395749858323755</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.812956726187363</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8729003397131442</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.812956726187363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4728158713.776678</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003668523953611458</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.276204861949386</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8248839406465326</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.276204861949386</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6721325349.95717</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001260050098352423</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5488006863830948</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.295360713398154</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8806829120265632</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.295360713398154</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_45.xlsx
+++ b/output/fit_clients/fit_round_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6802469066.655677</v>
+        <v>2522124621.943487</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004116947977445871</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.1107723532810167</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03918618007015828</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1261062376.758109</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6799905932.181687</v>
+        <v>1602649505.228644</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004416343411634841</v>
-      </c>
-      <c r="G3" t="b">
+        <v>0.1479742892910124</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04895638157653206</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>11</v>
+      <c r="J3" t="n">
+        <v>801324730.9704019</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4751878538.671082</v>
+        <v>4462280536.844025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002798567248611248</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1044234640242511</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03382348489135314</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2231140315.204578</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4228150954.077581</v>
+        <v>4192461080.95901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005253429959839348</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.08550000508406763</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03530230791839335</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2096230531.372174</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5444682198.914845</v>
+        <v>2468567135.721826</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002182116500560369</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.08975820056796209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05521070526883017</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1234283546.612151</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8408148985.335418</v>
+        <v>2793573188.924632</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008253855975229202</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
+        <v>0.07456163683149823</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03846091302042918</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1396786579.065467</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>6426020868.131946</v>
+        <v>2992585938.51444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002760253516984569</v>
-      </c>
-      <c r="G8" t="b">
+        <v>0.1840007356038151</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02386058700261146</v>
+      </c>
+      <c r="H8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>12</v>
+      <c r="I8" t="n">
+        <v>14</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1496293025.879234</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4780255152.297726</v>
+        <v>1509125173.130923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005096095416639434</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1895955551497532</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0312663352402025</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>754562681.1580911</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>2907669497.947879</v>
+        <v>4897771071.472894</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005207938461509624</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1544668816993025</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04010719168761093</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2448885626.987383</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4502586019.18286</v>
+        <v>3390845398.550949</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00135672468996701</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1614730621141448</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04970476174402834</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1695422669.30409</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>524</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2852817837.247448</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.184517085555677</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04442243036319562</v>
+      </c>
+      <c r="H12" t="b">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>537</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7029518040.219929</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.00167870248505629</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13</v>
+      <c r="I12" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1426408923.019519</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6510307767.723345</v>
+        <v>5345113515.730849</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002910897464940379</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
+        <v>0.07558711545074386</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02231288613659118</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2672556744.316155</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7047480165.874741</v>
+        <v>3219118273.893682</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002283575538875183</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1858928827307524</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04188192778142032</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1609559155.39298</v>
       </c>
     </row>
     <row r="15">
@@ -847,19 +935,25 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6009985443.458103</v>
+        <v>1643809728.82853</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003628748540791699</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.1070207545317643</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03534197683596273</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>821904982.3838943</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5470996029.891971</v>
+        <v>2175646675.93849</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005432150729743719</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
+        <v>0.08360530780445427</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04614546581965163</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1087823397.617235</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4974790932.546599</v>
+        <v>3640560109.06807</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003400912214354712</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
+        <v>0.1241205564480147</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04783085372190003</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1820280106.743232</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4742602485.53336</v>
+        <v>3845405441.286709</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008817099460229408</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
+        <v>0.1135022207289122</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02501997724647494</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1922702689.582008</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3933832986.418408</v>
+        <v>1259289319.020915</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001449086460870767</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1234032063523923</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02269399311458413</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>629644751.7176845</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6100999792.03222</v>
+        <v>2611261815.443237</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001124813289790274</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1513388594896675</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0296856512091778</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1305630868.807274</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6779569112.822036</v>
+        <v>2489523431.011364</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004682520749106086</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
+        <v>0.1015870407546653</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04191308275872532</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1244761704.517414</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4413068053.365837</v>
+        <v>4048674306.941733</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003787030709229634</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1420864124709427</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04497328346762807</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2024337152.034459</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6264603978.821759</v>
+        <v>1319290659.120909</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001442370926094433</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
+        <v>0.1762422080947748</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0532591397497356</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>659645345.804222</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5281216296.241141</v>
+        <v>3259620566.821767</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004582286988528794</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>11</v>
+        <v>0.117711858495089</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03008821464062086</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1629810301.043132</v>
       </c>
     </row>
     <row r="25">
@@ -1127,19 +1275,25 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4775329589.333447</v>
+        <v>1481606843.503046</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002635009498116833</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.09204973130527361</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02713723459054027</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>740803374.7713302</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4079220915.011312</v>
+        <v>1327523142.78056</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009820829230115797</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.09816578166933015</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02537418224796711</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>663761623.4911472</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6368954448.612117</v>
+        <v>3460930203.85409</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003285195299005728</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1027259754200726</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02276737503115558</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1730465138.714269</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7028140321.153745</v>
+        <v>3221870104.653771</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004880852754884294</v>
-      </c>
-      <c r="G28" t="b">
+        <v>0.09857436676087571</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04612068061359739</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="H28" t="n">
-        <v>11</v>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1610935082.660339</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7917451615.11412</v>
+        <v>4983196003.353384</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001101707100379052</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1037066646929362</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03654703745468952</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2491597950.206505</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8083317237.68269</v>
+        <v>2052054849.273293</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003872571182372408</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.1399965858745106</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04001996311808917</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1026027467.864363</v>
       </c>
     </row>
     <row r="31">
@@ -1295,19 +1479,25 @@
         <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7496959821.671876</v>
+        <v>1431916338.087273</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003098896142322803</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
+        <v>0.08625639754074883</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03584842184165772</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>715958065.7826691</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4985225655.821007</v>
+        <v>1191394598.160525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001243953797782214</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07959627217285822</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0334141166654399</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>595697303.38158</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5086875731.070008</v>
+        <v>3071656331.475897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002769586351761412</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
+        <v>0.1520434068687809</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0562471749351257</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>12</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1535828155.101633</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6172877830.948643</v>
+        <v>1098585887.723921</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005125024188493483</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>14</v>
+        <v>0.1062270508601155</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02014283407402973</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>549292965.3802713</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>7196606187.461425</v>
+        <v>1281396714.880389</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002585052800395433</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>11</v>
+        <v>0.1128034541476491</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03915980178782177</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>640698314.1472962</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7551756650.003328</v>
+        <v>3008456903.486113</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003707000501080361</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>13</v>
+        <v>0.1551367957558669</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0197903493961561</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1504228432.82979</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6509574573.36869</v>
+        <v>2253987655.073874</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005199754436210909</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.1079376872128423</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03673410705722575</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1126993889.608087</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4512270888.65201</v>
+        <v>1659030525.724204</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003348185949716663</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1177044380894968</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03619603545006014</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>829515289.4991854</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4111784322.046481</v>
+        <v>1961381521.322398</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002941094403805742</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.163475260690553</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02660393194265902</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>980690760.9091896</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5175412939.740541</v>
+        <v>1432149613.46452</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003465441766173607</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1249504102103034</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03963989997599682</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>716074789.7489814</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>4812046441.788709</v>
+        <v>1944999621.725572</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001134262013880522</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>13</v>
+        <v>0.1255113584183307</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02963081924830651</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>972499890.2654833</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6105428660.278498</v>
+        <v>4328699372.722604</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005328291407379412</v>
-      </c>
-      <c r="G42" t="b">
+        <v>0.1006837120248421</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03314097557525733</v>
+      </c>
+      <c r="H42" t="b">
         <v>1</v>
       </c>
-      <c r="H42" t="n">
-        <v>11</v>
+      <c r="I42" t="n">
+        <v>15</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2164349738.172968</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>565</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3058639482.243408</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1633144557408772</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02121295618969671</v>
+      </c>
+      <c r="H43" t="b">
         <v>1</v>
       </c>
-      <c r="D43" t="n">
-        <v>493</v>
-      </c>
-      <c r="E43" t="n">
-        <v>6134756363.306083</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.004613593446213335</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+      <c r="I43" t="n">
+        <v>15</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1529319733.501992</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>7628016534.471785</v>
+        <v>1875987126.91029</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002244317330305348</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.06404416156992752</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02403685319875919</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>937993644.9119574</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4795035334.695475</v>
+        <v>2311374473.742007</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001586886174856572</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1343504868783224</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04700972452117655</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1155687258.972241</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>8175749805.230306</v>
+        <v>4995071839.529508</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003596052084888931</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>7</v>
+        <v>0.162649450964919</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05103827975037473</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2497535946.130011</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8036620291.301682</v>
+        <v>4282328139.610971</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002633033657728873</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1855232833501487</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03690743733443949</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2141164084.778438</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3876602696.958629</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1041096119604271</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03053348102919078</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>5377053758.924942</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.002296851155727566</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1938301389.878701</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4026400089.621101</v>
+        <v>1373357532.656411</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005229271819349144</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1590901287569002</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03404372480722816</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>686678817.8896552</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>514</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3757168489.448283</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1533891695870354</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03835925224735288</v>
+      </c>
+      <c r="H50" t="b">
         <v>1</v>
       </c>
-      <c r="D50" t="n">
-        <v>528</v>
-      </c>
-      <c r="E50" t="n">
-        <v>8597327708.752678</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.002987784042105277</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+      <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1878584250.523806</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5545022342.991986</v>
+        <v>1503315143.580842</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003766089509133455</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1840776185511397</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.05381247103715237</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>751657574.050656</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6785006357.482513</v>
+        <v>3855424758.39151</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001792382894409436</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
+        <v>0.08704493705828244</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05723330376172366</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1927712444.042448</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5893729527.651976</v>
+        <v>3471780603.276216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.00218366631761458</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1670119511336539</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02206411106407929</v>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1735890301.315526</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4254575021.637532</v>
+        <v>3141056708.390888</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003900109813968185</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1367486878024929</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04013761937749737</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1570528350.716188</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6625757468.57294</v>
+        <v>4909733752.086812</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003741453758371218</v>
-      </c>
-      <c r="G55" t="b">
+        <v>0.1371482382765981</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02592396228744995</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="H55" t="n">
-        <v>14</v>
+      <c r="I55" t="n">
+        <v>11</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2454866890.919156</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5293907477.923061</v>
+        <v>1382358749.744434</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002701790927282816</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.163352961330398</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05671333110005295</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>691179434.4135075</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8383228907.407393</v>
+        <v>3118828231.505362</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003963045884020017</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>11</v>
+        <v>0.1830397974307526</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02124799657912493</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1559414130.00284</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4892896107.712392</v>
+        <v>1345498361.867941</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002537246332275784</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.1872896200946842</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03508925055753792</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>672749226.0212201</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7489912561.283246</v>
+        <v>3266498847.968053</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002961663673925917</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.1131206378748193</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03155377385619552</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1633249435.17562</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5511318578.169925</v>
+        <v>3298592950.129133</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00369550049664791</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.194579571981871</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02265440383457338</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1649296576.557439</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7240683859.404086</v>
+        <v>2577976776.080376</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003848932267073384</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
+        <v>0.138749463078594</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02886934898667928</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1288988408.162748</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5755847389.989805</v>
+        <v>1424686887.537298</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003232030092392803</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
+        <v>0.1741357883926798</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04941487945296708</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>712343415.3994473</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6480582538.608857</v>
+        <v>5508257250.590107</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005585671835423187</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>11</v>
+        <v>0.08992252130493847</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03455433564612673</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2754128620.22147</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4222221096.148382</v>
+        <v>4907425512.416373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003885817874431795</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1631284847022712</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02428521436818789</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2453712855.746076</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5138318435.130921</v>
+        <v>4063599059.117295</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005572669218930888</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1399134690748991</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02914782873350147</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2031799544.177733</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6541891359.148833</v>
+        <v>5591572851.783774</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003307939505814185</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
+        <v>0.1285247219444542</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04908616369480024</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2795786484.605763</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5485731006.119265</v>
+        <v>3429112765.527167</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004576951603982683</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.06399908745872643</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04502729475885185</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1714556364.600521</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7962620335.570604</v>
+        <v>5796607537.907989</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002395512718091859</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9</v>
+        <v>0.1509109345692226</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03589992514057108</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2898303873.460214</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4478920288.468927</v>
+        <v>1620323631.940419</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001198299809781112</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1299283474222177</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05082995249264184</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>810161771.6782688</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6724679102.734118</v>
+        <v>2493499456.853727</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003825649972868486</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
+        <v>0.06222286237406833</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04801309226356848</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1246749672.361428</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3203167098.522153</v>
+        <v>4511751546.293586</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003756690678925184</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1530013612674692</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03220530129831562</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>16</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2255875842.248961</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5783161431.089222</v>
+        <v>1607455007.799214</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002385566957352325</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.09013140407030606</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03463363321605282</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>803727513.4165678</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5415894243.30735</v>
+        <v>3574279129.740644</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001068283235590037</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.08627780526574955</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03651743384532252</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1787139508.160479</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5472501751.200336</v>
+        <v>3548908905.935224</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004463627969511772</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1545246372969653</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02291076216953639</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1774454470.774363</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8133121924.341476</v>
+        <v>2268470016.59411</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002742575293525847</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
+        <v>0.1308007003932611</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03589510284575205</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1134234947.185598</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5943906952.439774</v>
+        <v>4134225653.779118</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002259780312749048</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
+        <v>0.1136384567698046</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.030204071216175</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2067112817.107956</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6900879259.086631</v>
+        <v>1834110423.35532</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004987823969135126</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15</v>
+        <v>0.1677141893761692</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02699031770284764</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>917055248.579304</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7842864523.415489</v>
+        <v>4513277522.815482</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004108194997816618</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.09944861011357926</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0409703514300411</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2256638690.171339</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8431821692.359226</v>
+        <v>1900140680.760681</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001683835066251751</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1481882452823494</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03695937783986764</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>950070444.3878207</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5743025201.173889</v>
+        <v>3875802595.036268</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003099849293156415</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14</v>
+        <v>0.08104718331280991</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03032937730333251</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1937901290.680511</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>6315614715.79008</v>
+        <v>5203157723.802716</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005233341052660307</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>7</v>
+        <v>0.0954672663275262</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02498163799308635</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2601578869.697115</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>520</v>
+      </c>
+      <c r="E82" t="n">
+        <v>5089853807.078287</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1553435183268881</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01889603381512104</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
       </c>
-      <c r="D82" t="n">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
-        <v>8654041556.955879</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.004045880411955369</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+      <c r="I82" t="n">
+        <v>16</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2544926882.328087</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9820712624.52319</v>
+        <v>1504446566.499129</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003652745302431184</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1350680514493806</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03960343188974495</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>752223206.6769868</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5667397817.595094</v>
+        <v>1679103899.516081</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005035160390521133</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.103315140525118</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04239686004027635</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>839552001.6168997</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4016352794.665262</v>
+        <v>3685395607.657829</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00293160325858649</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1257602671122541</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05211525562781619</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1842697939.500226</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6298342528.715205</v>
+        <v>1985062363.361701</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001979155554062701</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1659660513577809</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0175892389294841</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>992531207.1107315</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4043883314.163383</v>
+        <v>968609071.2607793</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001153185377634926</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1390845567333226</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03612402014217912</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>484304531.7588872</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8066916121.165452</v>
+        <v>2851998589.226593</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003844782874676252</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1185118398745517</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02911465415194686</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1425999310.288368</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5199930089.678824</v>
+        <v>2802795474.70248</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003714063313656021</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1383666559682102</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03600738202718939</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1401397789.777959</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7074547296.824942</v>
+        <v>1932706083.460783</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003095424774090699</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>8</v>
+        <v>0.1285072746729939</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04575920805804605</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>966353099.5368361</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5084885713.132448</v>
+        <v>1413538309.252166</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003683289247396985</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>13</v>
+        <v>0.1382827885900663</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04744924968080961</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>706769204.9204772</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4924036520.868646</v>
+        <v>2357906509.669092</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004227160476491253</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08636967541380453</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02944733304066035</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1178953227.912953</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6386557519.909452</v>
+        <v>4325198585.500988</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001637886808316276</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1090000153347327</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04562224843707376</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2162599272.176791</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5332027328.574491</v>
+        <v>2489849223.459835</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001465528821146567</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1032486999608195</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03875580542229513</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1244924673.668182</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>6228430996.959126</v>
+        <v>2218229977.615876</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002853956757963892</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.09117907154333897</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04518892632697864</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1109115045.242923</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>6180431587.462563</v>
+        <v>1846108388.865141</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003246903606798937</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>12</v>
+        <v>0.1253405564516596</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04388178790880779</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>923054197.6917421</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7639838103.286926</v>
+        <v>4730039254.147552</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003742431065721438</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>12</v>
+        <v>0.1305934924349382</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02273818264988023</v>
+      </c>
+      <c r="H97" t="b">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>14</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2365019742.020964</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3114593929.337515</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.113776429904281</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02629422839576395</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>6838529804.167156</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.003667165340338196</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>17</v>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1557296956.993413</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3527402973.603031</v>
+        <v>2278035529.389991</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005395749858323755</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1191857171185544</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03477892998918824</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1139017698.123334</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4728158713.776678</v>
+        <v>4519015329.055626</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003668523953611458</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>4</v>
+        <v>0.1752476785597109</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.0260285837797039</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2259507776.487503</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6721325349.95717</v>
+        <v>3328500856.264142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001260050098352423</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15</v>
+        <v>0.2091371854693644</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05763186624675217</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1664250560.469179</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_45.xlsx
+++ b/output/fit_clients/fit_round_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2522124621.943487</v>
+        <v>2090921742.496495</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1107723532810167</v>
+        <v>0.07022722420498061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03918618007015828</v>
+        <v>0.03101605654512015</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1261062376.758109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1602649505.228644</v>
+        <v>2048148089.612686</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1479742892910124</v>
+        <v>0.1136422011228659</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04895638157653206</v>
+        <v>0.04653302047639462</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>801324730.9704019</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4462280536.844025</v>
+        <v>5085981000.397231</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1044234640242511</v>
+        <v>0.131529060408924</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03382348489135314</v>
+        <v>0.03319610081822975</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2231140315.204578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4192461080.95901</v>
+        <v>3881734782.79916</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08550000508406763</v>
+        <v>0.1042696778839181</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03530230791839335</v>
+        <v>0.04066979272439911</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2096230531.372174</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2468567135.721826</v>
+        <v>2815646318.631205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08975820056796209</v>
+        <v>0.1422827177944344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05521070526883017</v>
+        <v>0.04482311128598318</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1234283546.612151</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2793573188.924632</v>
+        <v>2029393230.56893</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07456163683149823</v>
+        <v>0.06714182964692496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03846091302042918</v>
+        <v>0.03102471086378264</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1396786579.065467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2992585938.51444</v>
+        <v>2979479344.164552</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1840007356038151</v>
+        <v>0.133556277126363</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02386058700261146</v>
+        <v>0.02938942395552319</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1496293025.879234</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1509125173.130923</v>
+        <v>2078758389.223691</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1895955551497532</v>
+        <v>0.1303212412526246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0312663352402025</v>
+        <v>0.02471382334888134</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>754562681.1580911</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4897771071.472894</v>
+        <v>5824289516.973208</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1544668816993025</v>
+        <v>0.146593138826551</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04010719168761093</v>
+        <v>0.0478930203217943</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2448885626.987383</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3390845398.550949</v>
+        <v>3976461695.023886</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1614730621141448</v>
+        <v>0.1686814983795767</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04970476174402834</v>
+        <v>0.04752257507595494</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1695422669.30409</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2852817837.247448</v>
+        <v>2520022299.22529</v>
       </c>
       <c r="F12" t="n">
-        <v>0.184517085555677</v>
+        <v>0.16122025231007</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04442243036319562</v>
+        <v>0.03648447950491911</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1426408923.019519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5345113515.730849</v>
+        <v>3728220483.669427</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07558711545074386</v>
+        <v>0.09408635592885657</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02231288613659118</v>
+        <v>0.02986930520377519</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2672556744.316155</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3219118273.893682</v>
+        <v>2628742620.255992</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1858928827307524</v>
+        <v>0.1624709444444032</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04188192778142032</v>
+        <v>0.03325086816408646</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1609559155.39298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1643809728.82853</v>
+        <v>1409371200.523051</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1070207545317643</v>
+        <v>0.07719788520993252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03534197683596273</v>
+        <v>0.04390419206263991</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>821904982.3838943</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2175646675.93849</v>
+        <v>2743067131.81963</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08360530780445427</v>
+        <v>0.07297607379058041</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04614546581965163</v>
+        <v>0.05147283887376865</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1087823397.617235</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3640560109.06807</v>
+        <v>3874302613.712574</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1241205564480147</v>
+        <v>0.1204935063819984</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04783085372190003</v>
+        <v>0.0493971564580289</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1820280106.743232</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3845405441.286709</v>
+        <v>2761544191.640059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1135022207289122</v>
+        <v>0.1773212689821873</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02501997724647494</v>
+        <v>0.03030916939675994</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1922702689.582008</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1259289319.020915</v>
+        <v>1198055026.164289</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1234032063523923</v>
+        <v>0.1517734563249115</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02269399311458413</v>
+        <v>0.01904415178424843</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>629644751.7176845</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2611261815.443237</v>
+        <v>1958893005.063875</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1513388594896675</v>
+        <v>0.1202409806495461</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0296856512091778</v>
+        <v>0.0253797442197068</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1305630868.807274</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2489523431.011364</v>
+        <v>2073615935.970527</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1015870407546653</v>
+        <v>0.08722559280711921</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04191308275872532</v>
+        <v>0.0384061186029824</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1244761704.517414</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4048674306.941733</v>
+        <v>2770326908.748588</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1420864124709427</v>
+        <v>0.09216566296707802</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04497328346762807</v>
+        <v>0.05568085194824032</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2024337152.034459</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1319290659.120909</v>
+        <v>1023274870.430851</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1762422080947748</v>
+        <v>0.1433386083693071</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0532591397497356</v>
+        <v>0.03583455110483266</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>659645345.804222</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3259620566.821767</v>
+        <v>3174619431.721994</v>
       </c>
       <c r="F24" t="n">
-        <v>0.117711858495089</v>
+        <v>0.1212743956851725</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03008821464062086</v>
+        <v>0.02666084119825812</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1629810301.043132</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1481606843.503046</v>
+        <v>1289150466.557989</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09204973130527361</v>
+        <v>0.08925135884144832</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02713723459054027</v>
+        <v>0.02609060473552847</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>740803374.7713302</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1327523142.78056</v>
+        <v>1042053807.401339</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09816578166933015</v>
+        <v>0.1002777291141994</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02537418224796711</v>
+        <v>0.02465177725053259</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>663761623.4911472</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3460930203.85409</v>
+        <v>3446577597.638006</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1027259754200726</v>
+        <v>0.1580733118683963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02276737503115558</v>
+        <v>0.02122384609221172</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1730465138.714269</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3221870104.653771</v>
+        <v>2704492066.253904</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09857436676087571</v>
+        <v>0.1478713951863371</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04612068061359739</v>
+        <v>0.04463471153004114</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1610935082.660339</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4983196003.353384</v>
+        <v>4894419072.973828</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1037066646929362</v>
+        <v>0.1495543316565651</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03654703745468952</v>
+        <v>0.04284055809785932</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>20</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2491597950.206505</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2052054849.273293</v>
+        <v>1854143979.558694</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399965858745106</v>
+        <v>0.1378034931635986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04001996311808917</v>
+        <v>0.02766311541969554</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1026027467.864363</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1431916338.087273</v>
+        <v>1445828905.774964</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08625639754074883</v>
+        <v>0.07753824393045805</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03584842184165772</v>
+        <v>0.03866622055824284</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>715958065.7826691</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1191394598.160525</v>
+        <v>1826638175.761528</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07959627217285822</v>
+        <v>0.1000424519460282</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0334141166654399</v>
+        <v>0.03411092124667063</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>595697303.38158</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3071656331.475897</v>
+        <v>1900324855.176192</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1520434068687809</v>
+        <v>0.1277363669775918</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0562471749351257</v>
+        <v>0.05180572043210459</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>12</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1535828155.101633</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1098585887.723921</v>
+        <v>1491792977.257728</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1062270508601155</v>
+        <v>0.08169868869457947</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02014283407402973</v>
+        <v>0.01766122733166374</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>549292965.3802713</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1281396714.880389</v>
+        <v>1182268878.216689</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1128034541476491</v>
+        <v>0.1133792168492352</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03915980178782177</v>
+        <v>0.04277878230259229</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>640698314.1472962</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3008456903.486113</v>
+        <v>2748213931.310719</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1551367957558669</v>
+        <v>0.1625608838472552</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0197903493961561</v>
+        <v>0.01930008351627114</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1504228432.82979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2253987655.073874</v>
+        <v>2684829812.104468</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1079376872128423</v>
+        <v>0.08165597573606301</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03673410705722575</v>
+        <v>0.0392093147816211</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1126993889.608087</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1659030525.724204</v>
+        <v>1919487200.619946</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1177044380894968</v>
+        <v>0.08178868809712261</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03619603545006014</v>
+        <v>0.03559347532678518</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>829515289.4991854</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1961381521.322398</v>
+        <v>1753238680.999556</v>
       </c>
       <c r="F39" t="n">
-        <v>0.163475260690553</v>
+        <v>0.1676614357250895</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02660393194265902</v>
+        <v>0.03006654092794853</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>980690760.9091896</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1432149613.46452</v>
+        <v>1258972943.64301</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1249504102103034</v>
+        <v>0.1187806341811585</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03963989997599682</v>
+        <v>0.03976774402581981</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>716074789.7489814</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1944999621.725572</v>
+        <v>2733620801.44121</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1255113584183307</v>
+        <v>0.1557791382021426</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02963081924830651</v>
+        <v>0.03379329495747569</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>972499890.2654833</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4328699372.722604</v>
+        <v>3814893004.052683</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1006837120248421</v>
+        <v>0.125512156355547</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03314097557525733</v>
+        <v>0.04535911754243194</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>15</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2164349738.172968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3058639482.243408</v>
+        <v>1921208755.699405</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1633144557408772</v>
+        <v>0.1323803598290982</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02121295618969671</v>
+        <v>0.01704716436512528</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1529319733.501992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1875987126.91029</v>
+        <v>2145139714.371318</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06404416156992752</v>
+        <v>0.07359677869443308</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02403685319875919</v>
+        <v>0.03367062132469954</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>937993644.9119574</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2311374473.742007</v>
+        <v>2038143744.464115</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1343504868783224</v>
+        <v>0.1376066192704834</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04700972452117655</v>
+        <v>0.04812567342484162</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1155687258.972241</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4995071839.529508</v>
+        <v>5644797552.431896</v>
       </c>
       <c r="F46" t="n">
-        <v>0.162649450964919</v>
+        <v>0.1690210062846597</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05103827975037473</v>
+        <v>0.05821337408870698</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2497535946.130011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4282328139.610971</v>
+        <v>5160662551.078959</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1855232833501487</v>
+        <v>0.2034735475488667</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03690743733443949</v>
+        <v>0.0496141539840545</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2141164084.778438</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3876602696.958629</v>
+        <v>4096940438.67355</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1041096119604271</v>
+        <v>0.09185160309149418</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03053348102919078</v>
+        <v>0.03837954572791088</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1938301389.878701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1373357532.656411</v>
+        <v>1480512590.282614</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1590901287569002</v>
+        <v>0.1657902715758201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03404372480722816</v>
+        <v>0.03337808212047765</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>686678817.8896552</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3757168489.448283</v>
+        <v>3857430586.005681</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1533891695870354</v>
+        <v>0.113402467002781</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03835925224735288</v>
+        <v>0.03240316361073211</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>15</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1878584250.523806</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1503315143.580842</v>
+        <v>1265457090.996512</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1840776185511397</v>
+        <v>0.1812080479102395</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05381247103715237</v>
+        <v>0.04072571951549312</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>751657574.050656</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3855424758.39151</v>
+        <v>4023151916.671895</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08704493705828244</v>
+        <v>0.09734742500350521</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05723330376172366</v>
+        <v>0.05264896902657169</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1927712444.042448</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3471780603.276216</v>
+        <v>3552583813.411269</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1670119511336539</v>
+        <v>0.1481734497110473</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02206411106407929</v>
+        <v>0.0298825262885441</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>13</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1735890301.315526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3141056708.390888</v>
+        <v>4290850459.805781</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1367486878024929</v>
+        <v>0.168029416150476</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04013761937749737</v>
+        <v>0.0416676778968306</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1570528350.716188</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4909733752.086812</v>
+        <v>3170174755.374169</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1371482382765981</v>
+        <v>0.217035294593127</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02592396228744995</v>
+        <v>0.02632451100048107</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2454866890.919156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1382358749.744434</v>
+        <v>1813597931.760478</v>
       </c>
       <c r="F56" t="n">
-        <v>0.163352961330398</v>
+        <v>0.1587529192331264</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05671333110005295</v>
+        <v>0.04027007786458709</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>691179434.4135075</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3118828231.505362</v>
+        <v>4392294670.041843</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1830397974307526</v>
+        <v>0.1734896124848781</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02124799657912493</v>
+        <v>0.02192179193850178</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1559414130.00284</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1345498361.867941</v>
+        <v>1275333292.684265</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1872896200946842</v>
+        <v>0.1601859375306684</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03508925055753792</v>
+        <v>0.02397443618171972</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>672749226.0212201</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3266498847.968053</v>
+        <v>3321843772.568501</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1131206378748193</v>
+        <v>0.1243809338185539</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03155377385619552</v>
+        <v>0.03770765551476416</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1633249435.17562</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3298592950.129133</v>
+        <v>3165959864.918065</v>
       </c>
       <c r="F60" t="n">
-        <v>0.194579571981871</v>
+        <v>0.1879569901156291</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02265440383457338</v>
+        <v>0.022344531322537</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1649296576.557439</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2577976776.080376</v>
+        <v>2885722624.645913</v>
       </c>
       <c r="F61" t="n">
-        <v>0.138749463078594</v>
+        <v>0.1519846105373759</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02886934898667928</v>
+        <v>0.02344374697090308</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1288988408.162748</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1424686887.537298</v>
+        <v>1714518850.810419</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1741357883926798</v>
+        <v>0.1513120638095299</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04941487945296708</v>
+        <v>0.03075222118692461</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>712343415.3994473</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5508257250.590107</v>
+        <v>5215024816.560221</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08992252130493847</v>
+        <v>0.09877318285252921</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03455433564612673</v>
+        <v>0.03383349023851474</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2754128620.22147</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4907425512.416373</v>
+        <v>3377253289.721817</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1631284847022712</v>
+        <v>0.1425613890871903</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02428521436818789</v>
+        <v>0.02941989081042167</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2453712855.746076</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4063599059.117295</v>
+        <v>5299589851.116307</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1399134690748991</v>
+        <v>0.1408014541058228</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02914782873350147</v>
+        <v>0.02480566889691079</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2031799544.177733</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5591572851.783774</v>
+        <v>5487456960.47647</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1285247219444542</v>
+        <v>0.1464122975291058</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04908616369480024</v>
+        <v>0.03163101026112648</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2795786484.605763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3429112765.527167</v>
+        <v>3446956943.769294</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06399908745872643</v>
+        <v>0.09069765205430194</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04502729475885185</v>
+        <v>0.04109235441139755</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1714556364.600521</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5796607537.907989</v>
+        <v>5432636294.907701</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1509109345692226</v>
+        <v>0.1189150985219137</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03589992514057108</v>
+        <v>0.03689425493270387</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2898303873.460214</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1620323631.940419</v>
+        <v>2011277868.661426</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1299283474222177</v>
+        <v>0.153507994392072</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05082995249264184</v>
+        <v>0.05732429813952133</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>810161771.6782688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2493499456.853727</v>
+        <v>2852095587.533194</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06222286237406833</v>
+        <v>0.06662004047273769</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04801309226356848</v>
+        <v>0.04885135917437988</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1246749672.361428</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4511751546.293586</v>
+        <v>4967234203.790188</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1530013612674692</v>
+        <v>0.1734055361388583</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03220530129831562</v>
+        <v>0.02661948810613579</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>16</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2255875842.248961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1607455007.799214</v>
+        <v>2023410953.038755</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09013140407030606</v>
+        <v>0.09565580842923077</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03463363321605282</v>
+        <v>0.03826707945638688</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>803727513.4165678</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3574279129.740644</v>
+        <v>2524251640.163007</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08627780526574955</v>
+        <v>0.09659901414415378</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03651743384532252</v>
+        <v>0.04642347633494714</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>17</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1787139508.160479</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3548908905.935224</v>
+        <v>2577235679.740297</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1545246372969653</v>
+        <v>0.1499369959271267</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02291076216953639</v>
+        <v>0.03064154791368031</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>15</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1774454470.774363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2268470016.59411</v>
+        <v>2231717151.235095</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1308007003932611</v>
+        <v>0.1068028307391445</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03589510284575205</v>
+        <v>0.02481495108680247</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1134234947.185598</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4134225653.779118</v>
+        <v>4253307213.646615</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1136384567698046</v>
+        <v>0.08889165089777219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.030204071216175</v>
+        <v>0.02380994784091476</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2067112817.107956</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1834110423.35532</v>
+        <v>1399650919.399206</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1677141893761692</v>
+        <v>0.1617232983087674</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02699031770284764</v>
+        <v>0.01980869198559533</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>917055248.579304</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4513277522.815482</v>
+        <v>3428689254.961186</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09944861011357926</v>
+        <v>0.1103122416173881</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0409703514300411</v>
+        <v>0.041565488398159</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2256638690.171339</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1900140680.760681</v>
+        <v>1407107176.13244</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1481882452823494</v>
+        <v>0.1289525217839932</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03695937783986764</v>
+        <v>0.0315557340163926</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>950070444.3878207</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3875802595.036268</v>
+        <v>3872889957.708645</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08104718331280991</v>
+        <v>0.0773589023261059</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03032937730333251</v>
+        <v>0.03706547837512519</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1937901290.680511</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5203157723.802716</v>
+        <v>4037257879.045753</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0954672663275262</v>
+        <v>0.08438233890995527</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02498163799308635</v>
+        <v>0.02118188703578712</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2601578869.697115</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5089853807.078287</v>
+        <v>4132639994.953763</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1553435183268881</v>
+        <v>0.2028138991775755</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01889603381512104</v>
+        <v>0.02759342586613712</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>16</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2544926882.328087</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1504446566.499129</v>
+        <v>1801465557.28644</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1350680514493806</v>
+        <v>0.09605297502262576</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03960343188974495</v>
+        <v>0.03301881712596467</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>752223206.6769868</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1679103899.516081</v>
+        <v>1801991945.028175</v>
       </c>
       <c r="F84" t="n">
-        <v>0.103315140525118</v>
+        <v>0.09343347492999109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04239686004027635</v>
+        <v>0.03354047910746014</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>839552001.6168997</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3685395607.657829</v>
+        <v>3113789680.539503</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1257602671122541</v>
+        <v>0.1271293112705521</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05211525562781619</v>
+        <v>0.05490943329434817</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1842697939.500226</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1985062363.361701</v>
+        <v>2602445768.760352</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1659660513577809</v>
+        <v>0.1470626712960523</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0175892389294841</v>
+        <v>0.02030351623992962</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>992531207.1107315</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>968609071.2607793</v>
+        <v>1358116315.482711</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1390845567333226</v>
+        <v>0.1570926993058625</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03612402014217912</v>
+        <v>0.0315727564959377</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>484304531.7588872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2851998589.226593</v>
+        <v>2592834019.449079</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1185118398745517</v>
+        <v>0.1627604181173817</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02911465415194686</v>
+        <v>0.03910621226897611</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1425999310.288368</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2802795474.70248</v>
+        <v>2847852046.299877</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1383666559682102</v>
+        <v>0.1324114983547369</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03600738202718939</v>
+        <v>0.03100524284781078</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1401397789.777959</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1932706083.460783</v>
+        <v>1906574398.125658</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1285072746729939</v>
+        <v>0.1009763738153402</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04575920805804605</v>
+        <v>0.04287954424515463</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>966353099.5368361</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1413538309.252166</v>
+        <v>1567164114.446446</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1382827885900663</v>
+        <v>0.1619366319762804</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04744924968080961</v>
+        <v>0.05206755524069049</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>706769204.9204772</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2357906509.669092</v>
+        <v>2648128248.305831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08636967541380453</v>
+        <v>0.08738556160386347</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02944733304066035</v>
+        <v>0.03246806022367242</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1178953227.912953</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4325198585.500988</v>
+        <v>4751177583.266499</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1090000153347327</v>
+        <v>0.09234249006137431</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04562224843707376</v>
+        <v>0.04289121352820142</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2162599272.176791</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2489849223.459835</v>
+        <v>1714497585.844787</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1032486999608195</v>
+        <v>0.1364066356738269</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03875580542229513</v>
+        <v>0.03014855556845804</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1244924673.668182</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2218229977.615876</v>
+        <v>2553817331.181438</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09117907154333897</v>
+        <v>0.1264982178270459</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04518892632697864</v>
+        <v>0.04486299835211265</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1109115045.242923</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1846108388.865141</v>
+        <v>2061352424.042662</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1253405564516596</v>
+        <v>0.1252225703208276</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04388178790880779</v>
+        <v>0.03566856922948771</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>923054197.6917421</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4730039254.147552</v>
+        <v>3264266096.137555</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1305934924349382</v>
+        <v>0.1279228171193899</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02273818264988023</v>
+        <v>0.0239985005569426</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>14</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2365019742.020964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3114593929.337515</v>
+        <v>3197921344.769813</v>
       </c>
       <c r="F98" t="n">
-        <v>0.113776429904281</v>
+        <v>0.1067329696554453</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02629422839576395</v>
+        <v>0.03029494000884546</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>12</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1557296956.993413</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2278035529.389991</v>
+        <v>3208162785.590597</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1191857171185544</v>
+        <v>0.1106496577802415</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03477892998918824</v>
+        <v>0.03113469795637499</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1139017698.123334</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4519015329.055626</v>
+        <v>4500700938.516889</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1752476785597109</v>
+        <v>0.1674909712052724</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0260285837797039</v>
+        <v>0.01771835678756879</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2259507776.487503</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3328500856.264142</v>
+        <v>3235690965.416632</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2091371854693644</v>
+        <v>0.1368739655485606</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05763186624675217</v>
+        <v>0.05690624191928201</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1664250560.469179</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_45.xlsx
+++ b/output/fit_clients/fit_round_45.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2090921742.496495</v>
+        <v>2136564242.149865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07022722420498061</v>
+        <v>0.1149416344499287</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03101605654512015</v>
+        <v>0.03057294028056102</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2048148089.612686</v>
+        <v>1962230316.900105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1136422011228659</v>
+        <v>0.1357114217772005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04653302047639462</v>
+        <v>0.04798892582908892</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5085981000.397231</v>
+        <v>5025645758.526125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.131529060408924</v>
+        <v>0.1498924772553154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03319610081822975</v>
+        <v>0.03174536592188752</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3881734782.79916</v>
+        <v>3595597940.883308</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1042696778839181</v>
+        <v>0.06896253378463028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04066979272439911</v>
+        <v>0.03105007803114105</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2815646318.631205</v>
+        <v>1999337968.193825</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1422827177944344</v>
+        <v>0.1432190006625575</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04482311128598318</v>
+        <v>0.04229530331614988</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2029393230.56893</v>
+        <v>1921517220.871209</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06714182964692496</v>
+        <v>0.09163730975301289</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03102471086378264</v>
+        <v>0.04847569891954021</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2979479344.164552</v>
+        <v>2931031684.240709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.133556277126363</v>
+        <v>0.1869837852181179</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02938942395552319</v>
+        <v>0.02447524696274988</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2078758389.223691</v>
+        <v>1399093237.598144</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1303212412526246</v>
+        <v>0.1823666607587927</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02471382334888134</v>
+        <v>0.0350042579074251</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5824289516.973208</v>
+        <v>3760634514.20988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.146593138826551</v>
+        <v>0.1960033037075571</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0478930203217943</v>
+        <v>0.03975323432219956</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3976461695.023886</v>
+        <v>2685666609.357364</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1686814983795767</v>
+        <v>0.1623363419804907</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04752257507595494</v>
+        <v>0.03436371859927057</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2520022299.22529</v>
+        <v>2246667458.426837</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16122025231007</v>
+        <v>0.1462472572754848</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03648447950491911</v>
+        <v>0.03376632817930059</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3728220483.669427</v>
+        <v>3376034741.83409</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09408635592885657</v>
+        <v>0.09400578520935488</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02986930520377519</v>
+        <v>0.02540036237423126</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2628742620.255992</v>
+        <v>3209057745.921473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1624709444444032</v>
+        <v>0.1306315502619121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03325086816408646</v>
+        <v>0.04217265336469623</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1409371200.523051</v>
+        <v>1284669199.650672</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07719788520993252</v>
+        <v>0.1057708811269388</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04390419206263991</v>
+        <v>0.03609244261588047</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2743067131.81963</v>
+        <v>1970874728.944946</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07297607379058041</v>
+        <v>0.103255736425928</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05147283887376865</v>
+        <v>0.04514385516384556</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3874302613.712574</v>
+        <v>3337191798.208917</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1204935063819984</v>
+        <v>0.147991163554034</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0493971564580289</v>
+        <v>0.03493344746001281</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2761544191.640059</v>
+        <v>3730448519.475525</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1773212689821873</v>
+        <v>0.1573041703286143</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03030916939675994</v>
+        <v>0.02184081788608465</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1198055026.164289</v>
+        <v>1162952643.066515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1517734563249115</v>
+        <v>0.1822298885272209</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01904415178424843</v>
+        <v>0.02278393466814438</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1958893005.063875</v>
+        <v>2539299375.786203</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1202409806495461</v>
+        <v>0.1553265671527021</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0253797442197068</v>
+        <v>0.02711973626894162</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2073615935.970527</v>
+        <v>2628293353.579253</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08722559280711921</v>
+        <v>0.06473375817603717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0384061186029824</v>
+        <v>0.03224851275811642</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2770326908.748588</v>
+        <v>3409720354.0799</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09216566296707802</v>
+        <v>0.1101320698144244</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05568085194824032</v>
+        <v>0.04382365881241985</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1023274870.430851</v>
+        <v>1302317522.415318</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1433386083693071</v>
+        <v>0.1794677594525001</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03583455110483266</v>
+        <v>0.05123567416776843</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3174619431.721994</v>
+        <v>2718168616.344334</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1212743956851725</v>
+        <v>0.125108663456153</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02666084119825812</v>
+        <v>0.03307787741439888</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1289150466.557989</v>
+        <v>1481828311.264788</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08925135884144832</v>
+        <v>0.1115472994942518</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02609060473552847</v>
+        <v>0.02067718446362433</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1042053807.401339</v>
+        <v>1428832786.02053</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1002777291141994</v>
+        <v>0.09009108526611849</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02465177725053259</v>
+        <v>0.02808275096792027</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3446577597.638006</v>
+        <v>4110028361.274064</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1580733118683963</v>
+        <v>0.1155449747601537</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02122384609221172</v>
+        <v>0.02585397696606884</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2704492066.253904</v>
+        <v>3500598933.069856</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1478713951863371</v>
+        <v>0.1190512568830025</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04463471153004114</v>
+        <v>0.03537735197101527</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4894419072.973828</v>
+        <v>4449133526.07754</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1495543316565651</v>
+        <v>0.14932438235354</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04284055809785932</v>
+        <v>0.04007773715958144</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1854143979.558694</v>
+        <v>1478824652.701728</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378034931635986</v>
+        <v>0.1389736980222877</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02766311541969554</v>
+        <v>0.03942147699510211</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1445828905.774964</v>
+        <v>1138053710.472167</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07753824393045805</v>
+        <v>0.06976666113205554</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03866622055824284</v>
+        <v>0.03599045263741775</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1826638175.761528</v>
+        <v>1378180400.418378</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1000424519460282</v>
+        <v>0.09964586053832124</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03411092124667063</v>
+        <v>0.03745443042497158</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1900324855.176192</v>
+        <v>2408777054.14959</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1277363669775918</v>
+        <v>0.1344647501325499</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05180572043210459</v>
+        <v>0.04430435067014658</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1491792977.257728</v>
+        <v>1062318205.554513</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08169868869457947</v>
+        <v>0.09161559218810582</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01766122733166374</v>
+        <v>0.02549548596635789</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1182268878.216689</v>
+        <v>1256446124.553122</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1133792168492352</v>
+        <v>0.1068437711543303</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04277878230259229</v>
+        <v>0.03924209584536081</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2748213931.310719</v>
+        <v>2878147028.864832</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1625608838472552</v>
+        <v>0.174041650311867</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01930008351627114</v>
+        <v>0.02114329621538033</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2684829812.104468</v>
+        <v>1873534285.964044</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08165597573606301</v>
+        <v>0.1026275057266485</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0392093147816211</v>
+        <v>0.03147085661883146</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1919487200.619946</v>
+        <v>2181670145.296599</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08178868809712261</v>
+        <v>0.1101829970281916</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03559347532678518</v>
+        <v>0.03346246354429593</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1753238680.999556</v>
+        <v>1759975428.669708</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1676614357250895</v>
+        <v>0.1790200943661416</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03006654092794853</v>
+        <v>0.03188201069251273</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1258972943.64301</v>
+        <v>1365446689.856122</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1187806341811585</v>
+        <v>0.158694150956316</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03976774402581981</v>
+        <v>0.03761992620887846</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2733620801.44121</v>
+        <v>2605677259.106473</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1557791382021426</v>
+        <v>0.1606124102633994</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03379329495747569</v>
+        <v>0.04620300727705828</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3814893004.052683</v>
+        <v>4198697270.430275</v>
       </c>
       <c r="F42" t="n">
-        <v>0.125512156355547</v>
+        <v>0.09429921784805213</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04535911754243194</v>
+        <v>0.03110779110951972</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1921208755.699405</v>
+        <v>1961287480.136077</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1323803598290982</v>
+        <v>0.1688110929688427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01704716436512528</v>
+        <v>0.01592290424498386</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2145139714.371318</v>
+        <v>2288541602.068033</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07359677869443308</v>
+        <v>0.0822162378059403</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03367062132469954</v>
+        <v>0.0299202637247257</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2038143744.464115</v>
+        <v>1747505549.106429</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1376066192704834</v>
+        <v>0.1222296406059696</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04812567342484162</v>
+        <v>0.05183165021477217</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5644797552.431896</v>
+        <v>4953249579.726587</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690210062846597</v>
+        <v>0.1114812498146125</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05821337408870698</v>
+        <v>0.05716924881699739</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5160662551.078959</v>
+        <v>3173567190.661197</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2034735475488667</v>
+        <v>0.1969057899681443</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0496141539840545</v>
+        <v>0.0554069023564125</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4096940438.67355</v>
+        <v>2895100737.913353</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09185160309149418</v>
+        <v>0.06969691348618014</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03837954572791088</v>
+        <v>0.03925868268818773</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1480512590.282614</v>
+        <v>1690063018.33534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1657902715758201</v>
+        <v>0.1423291645459083</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03337808212047765</v>
+        <v>0.04196205402541769</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3857430586.005681</v>
+        <v>3666618527.287885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.113402467002781</v>
+        <v>0.1561049486808692</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03240316361073211</v>
+        <v>0.03496332898323334</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1265457090.996512</v>
+        <v>1222418665.907559</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1812080479102395</v>
+        <v>0.1243793482020212</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04072571951549312</v>
+        <v>0.05350695271185176</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4023151916.671895</v>
+        <v>4441037700.982597</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09734742500350521</v>
+        <v>0.08641660577717308</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05264896902657169</v>
+        <v>0.05220600289564521</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3552583813.411269</v>
+        <v>3589249253.186374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1481734497110473</v>
+        <v>0.1640336905469666</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0298825262885441</v>
+        <v>0.03260158578391206</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4290850459.805781</v>
+        <v>3463614288.591581</v>
       </c>
       <c r="F54" t="n">
-        <v>0.168029416150476</v>
+        <v>0.1135965437997806</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0416676778968306</v>
+        <v>0.04114804055706014</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3170174755.374169</v>
+        <v>4944456018.169075</v>
       </c>
       <c r="F55" t="n">
-        <v>0.217035294593127</v>
+        <v>0.2020177878561085</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02632451100048107</v>
+        <v>0.02020847015938597</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1813597931.760478</v>
+        <v>1558635225.157995</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1587529192331264</v>
+        <v>0.1433773605796525</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04027007786458709</v>
+        <v>0.04939595163272346</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4392294670.041843</v>
+        <v>3139253916.692507</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1734896124848781</v>
+        <v>0.1496871780565026</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02192179193850178</v>
+        <v>0.02122121727535757</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1275333292.684265</v>
+        <v>1781654338.077403</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1601859375306684</v>
+        <v>0.1716839204819413</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02397443618171972</v>
+        <v>0.03514401131470607</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3321843772.568501</v>
+        <v>3500198050.285191</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1243809338185539</v>
+        <v>0.1137858368252909</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03770765551476416</v>
+        <v>0.032000642303226</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3165959864.918065</v>
+        <v>3691469916.879892</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1879569901156291</v>
+        <v>0.1649833205289344</v>
       </c>
       <c r="G60" t="n">
-        <v>0.022344531322537</v>
+        <v>0.03342385527688942</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2885722624.645913</v>
+        <v>2309884016.825081</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1519846105373759</v>
+        <v>0.122521155603823</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02344374697090308</v>
+        <v>0.02805519567588293</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1714518850.810419</v>
+        <v>1656131372.328449</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1513120638095299</v>
+        <v>0.1497339460930112</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03075222118692461</v>
+        <v>0.04622997349152656</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5215024816.560221</v>
+        <v>3628524347.281802</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09877318285252921</v>
+        <v>0.1040670244841708</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03383349023851474</v>
+        <v>0.04594351570769905</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3377253289.721817</v>
+        <v>4449271011.597695</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1425613890871903</v>
+        <v>0.1773918529259616</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02941989081042167</v>
+        <v>0.02257826613735558</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5299589851.116307</v>
+        <v>3702632452.26791</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1408014541058228</v>
+        <v>0.1568582413642014</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02480566889691079</v>
+        <v>0.0266479767036988</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5487456960.47647</v>
+        <v>3661075676.529893</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1464122975291058</v>
+        <v>0.1103780793218817</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03163101026112648</v>
+        <v>0.04807285972418977</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3446956943.769294</v>
+        <v>2281961989.825176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09069765205430194</v>
+        <v>0.09207445254277227</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04109235441139755</v>
+        <v>0.03214185321362314</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5432636294.907701</v>
+        <v>5273020084.689127</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1189150985219137</v>
+        <v>0.1594309682307872</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03689425493270387</v>
+        <v>0.03888301591950675</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2011277868.661426</v>
+        <v>1647587086.342818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.153507994392072</v>
+        <v>0.1515679045954665</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05732429813952133</v>
+        <v>0.0572519004118496</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2852095587.533194</v>
+        <v>3593644289.195625</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06662004047273769</v>
+        <v>0.07420359395608978</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04885135917437988</v>
+        <v>0.0440990852228447</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4967234203.790188</v>
+        <v>4521944786.889719</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1734055361388583</v>
+        <v>0.177358269082301</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02661948810613579</v>
+        <v>0.0264667418194078</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2023410953.038755</v>
+        <v>1942520284.3727</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09565580842923077</v>
+        <v>0.09502037983335228</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03826707945638688</v>
+        <v>0.03786408954036333</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2524251640.163007</v>
+        <v>3113779295.67977</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09659901414415378</v>
+        <v>0.09990687063040753</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04642347633494714</v>
+        <v>0.03873580377268119</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2577235679.740297</v>
+        <v>3224124919.195875</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1499369959271267</v>
+        <v>0.1120495789116666</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03064154791368031</v>
+        <v>0.0230394694980179</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2231717151.235095</v>
+        <v>1857804856.490856</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1068028307391445</v>
+        <v>0.1105825593935988</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02481495108680247</v>
+        <v>0.02483499496395598</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4253307213.646615</v>
+        <v>5111897114.919167</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08889165089777219</v>
+        <v>0.08827223707436541</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02380994784091476</v>
+        <v>0.02568129484850071</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1399650919.399206</v>
+        <v>2239082854.590777</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1617232983087674</v>
+        <v>0.1144016107945678</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01980869198559533</v>
+        <v>0.02232266247822674</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3428689254.961186</v>
+        <v>4704085732.558171</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1103122416173881</v>
+        <v>0.1169491577417345</v>
       </c>
       <c r="G78" t="n">
-        <v>0.041565488398159</v>
+        <v>0.04447881950497917</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1407107176.13244</v>
+        <v>1359499317.501745</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1289525217839932</v>
+        <v>0.1454610215777716</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0315557340163926</v>
+        <v>0.03956962445230812</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3872889957.708645</v>
+        <v>3761325231.798283</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0773589023261059</v>
+        <v>0.09586742644396874</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03706547837512519</v>
+        <v>0.0252608383102925</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4037257879.045753</v>
+        <v>3900956522.532826</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08438233890995527</v>
+        <v>0.08763035076031281</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02118188703578712</v>
+        <v>0.02758609034375826</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4132639994.953763</v>
+        <v>4307922811.516433</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2028138991775755</v>
+        <v>0.1888343576499048</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02759342586613712</v>
+        <v>0.02742494193144479</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1801465557.28644</v>
+        <v>1837158688.187667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09605297502262576</v>
+        <v>0.1533976416987625</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03301881712596467</v>
+        <v>0.02760548692276855</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1801991945.028175</v>
+        <v>2388810978.925382</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09343347492999109</v>
+        <v>0.1172152314212779</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03354047910746014</v>
+        <v>0.04432297161588821</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3113789680.539503</v>
+        <v>2237777635.362523</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1271293112705521</v>
+        <v>0.1334759875002728</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05490943329434817</v>
+        <v>0.04090097785468839</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2602445768.760352</v>
+        <v>2670150453.884977</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1470626712960523</v>
+        <v>0.1563701286406751</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02030351623992962</v>
+        <v>0.02671400550794402</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1358116315.482711</v>
+        <v>921532204.5566865</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1570926993058625</v>
+        <v>0.1237644990571164</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0315727564959377</v>
+        <v>0.03120388215790158</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2592834019.449079</v>
+        <v>2293362905.169939</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1627604181173817</v>
+        <v>0.1490013444783398</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03910621226897611</v>
+        <v>0.03955086382337519</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2847852046.299877</v>
+        <v>2274851834.341975</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1324114983547369</v>
+        <v>0.1195086902896528</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03100524284781078</v>
+        <v>0.03390594793016181</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1906574398.125658</v>
+        <v>1429488926.267319</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009763738153402</v>
+        <v>0.0995684122523024</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04287954424515463</v>
+        <v>0.05028038649065109</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1567164114.446446</v>
+        <v>1954605916.783586</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1619366319762804</v>
+        <v>0.181064003120171</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05206755524069049</v>
+        <v>0.03745638164735197</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2648128248.305831</v>
+        <v>1972878672.378514</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08738556160386347</v>
+        <v>0.1045259258663993</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03246806022367242</v>
+        <v>0.04522473845873527</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4751177583.266499</v>
+        <v>4502465573.994101</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09234249006137431</v>
+        <v>0.1123052317042069</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04289121352820142</v>
+        <v>0.03764607584909802</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1714497585.844787</v>
+        <v>2058836039.57396</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1364066356738269</v>
+        <v>0.1331231693625229</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03014855556845804</v>
+        <v>0.03989457712991427</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2553817331.181438</v>
+        <v>3076351899.98233</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1264982178270459</v>
+        <v>0.1136952811722205</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04486299835211265</v>
+        <v>0.03949290056063139</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2061352424.042662</v>
+        <v>2037582134.311513</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1252225703208276</v>
+        <v>0.1191108518098776</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03566856922948771</v>
+        <v>0.04127594675239957</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3264266096.137555</v>
+        <v>5008283818.747706</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279228171193899</v>
+        <v>0.1269533005906513</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0239985005569426</v>
+        <v>0.02617565673076552</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3197921344.769813</v>
+        <v>3567530511.939425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1067329696554453</v>
+        <v>0.1282576860271284</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03029494000884546</v>
+        <v>0.02338278607540385</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3208162785.590597</v>
+        <v>2387387158.360279</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1106496577802415</v>
+        <v>0.1007607613372769</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03113469795637499</v>
+        <v>0.03465256705547363</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4500700938.516889</v>
+        <v>3793780149.467845</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1674909712052724</v>
+        <v>0.1218185872329008</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01771835678756879</v>
+        <v>0.02333914645659195</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3235690965.416632</v>
+        <v>2920774374.386487</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1368739655485606</v>
+        <v>0.1668314392367576</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05690624191928201</v>
+        <v>0.05264610335091783</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_45.xlsx
+++ b/output/fit_clients/fit_round_45.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2136564242.149865</v>
+        <v>1745549017.2018</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1149416344499287</v>
+        <v>0.08717209441061273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03057294028056102</v>
+        <v>0.04266297701461331</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1962230316.900105</v>
+        <v>2627931511.718179</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1357114217772005</v>
+        <v>0.1549121064758089</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04798892582908892</v>
+        <v>0.03904477010158535</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5025645758.526125</v>
+        <v>5172936326.970813</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1498924772553154</v>
+        <v>0.1567398645335287</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03174536592188752</v>
+        <v>0.0280592874835121</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>212.5547225796649</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3595597940.883308</v>
+        <v>3775027927.141111</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06896253378463028</v>
+        <v>0.09542201698205512</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03105007803114105</v>
+        <v>0.04514067446085272</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1999337968.193825</v>
+        <v>2244051524.721257</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1432190006625575</v>
+        <v>0.1006691762501496</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04229530331614988</v>
+        <v>0.05606879867933352</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1921517220.871209</v>
+        <v>2324583645.115746</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09163730975301289</v>
+        <v>0.06190287701799922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04847569891954021</v>
+        <v>0.04236483400199312</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2931031684.240709</v>
+        <v>3752331136.888376</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1869837852181179</v>
+        <v>0.2198468851921566</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02447524696274988</v>
+        <v>0.02420039007183789</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1399093237.598144</v>
+        <v>1714577493.216357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1823666607587927</v>
+        <v>0.1432321241638017</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0350042579074251</v>
+        <v>0.03709662307138505</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3760634514.20988</v>
+        <v>4152709759.105701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1960033037075571</v>
+        <v>0.1588768624646822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03975323432219956</v>
+        <v>0.04715262536360729</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>41</v>
+      </c>
+      <c r="J10" t="n">
+        <v>45</v>
+      </c>
+      <c r="K10" t="n">
+        <v>235.3995983350521</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2685666609.357364</v>
+        <v>2848531991.316556</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1623363419804907</v>
+        <v>0.1546130435079196</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03436371859927057</v>
+        <v>0.03783640649568288</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>44</v>
+      </c>
+      <c r="K11" t="n">
+        <v>107.4621422593173</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2246667458.426837</v>
+        <v>2227065143.745183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1462472572754848</v>
+        <v>0.1416749065195041</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03376632817930059</v>
+        <v>0.05331858399358306</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3376034741.83409</v>
+        <v>4346063994.154568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09400578520935488</v>
+        <v>0.08798501767307461</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02540036237423126</v>
+        <v>0.01897669326923023</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>44</v>
+      </c>
+      <c r="K13" t="n">
+        <v>209.0948218037517</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3209057745.921473</v>
+        <v>3429232921.235816</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1306315502619121</v>
+        <v>0.1536106541075375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04217265336469623</v>
+        <v>0.0399623297887207</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1284669199.650672</v>
+        <v>1114707227.4251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1057708811269388</v>
+        <v>0.1054757410513102</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03609244261588047</v>
+        <v>0.03172271764449114</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1970874728.944946</v>
+        <v>2480896735.312091</v>
       </c>
       <c r="F16" t="n">
-        <v>0.103255736425928</v>
+        <v>0.1061867046388706</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04514385516384556</v>
+        <v>0.03900687072240343</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3337191798.208917</v>
+        <v>4096144616.757173</v>
       </c>
       <c r="F17" t="n">
-        <v>0.147991163554034</v>
+        <v>0.1079793898085494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03493344746001281</v>
+        <v>0.04193488725962537</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>21</v>
+      </c>
+      <c r="J17" t="n">
+        <v>45</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3730448519.475525</v>
+        <v>2955256074.838257</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1573041703286143</v>
+        <v>0.1587685509997168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02184081788608465</v>
+        <v>0.02270461756630574</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>44</v>
+      </c>
+      <c r="K18" t="n">
+        <v>104.9789856706235</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1162952643.066515</v>
+        <v>1095460079.208689</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1822298885272209</v>
+        <v>0.1277116218832282</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02278393466814438</v>
+        <v>0.01939418253378043</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2539299375.786203</v>
+        <v>2042806082.139444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1553265671527021</v>
+        <v>0.12189966361764</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02711973626894162</v>
+        <v>0.02214779759994189</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2628293353.579253</v>
+        <v>2629687674.989658</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06473375817603717</v>
+        <v>0.07382955824894054</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03224851275811642</v>
+        <v>0.03437267372241968</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1211,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3409720354.0799</v>
+        <v>2477125672.174752</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1101320698144244</v>
+        <v>0.119856381314668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04382365881241985</v>
+        <v>0.0472238664864698</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>44</v>
+      </c>
+      <c r="K22" t="n">
+        <v>65.70240528382607</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302317522.415318</v>
+        <v>1110796372.234906</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1794677594525001</v>
+        <v>0.1423854721829906</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05123567416776843</v>
+        <v>0.04577551979073587</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1283,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2718168616.344334</v>
+        <v>3901841136.302125</v>
       </c>
       <c r="F24" t="n">
-        <v>0.125108663456153</v>
+        <v>0.1246851698021463</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03307787741439888</v>
+        <v>0.0267008680692766</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>44</v>
+      </c>
+      <c r="K24" t="n">
+        <v>172.742622307982</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1481828311.264788</v>
+        <v>1226185395.113781</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1115472994942518</v>
+        <v>0.1206684990296874</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02067718446362433</v>
+        <v>0.02850174525098331</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1349,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1428832786.02053</v>
+        <v>1196972012.282941</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09009108526611849</v>
+        <v>0.08538993223975179</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02808275096792027</v>
+        <v>0.03032367987397495</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1390,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4110028361.274064</v>
+        <v>3512766123.498478</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1155449747601537</v>
+        <v>0.1577272372040252</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02585397696606884</v>
+        <v>0.02479375673191099</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>44</v>
+      </c>
+      <c r="K27" t="n">
+        <v>122.3587697955709</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3500598933.069856</v>
+        <v>3601842469.219847</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1190512568830025</v>
+        <v>0.1505702704234061</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03537735197101527</v>
+        <v>0.03784711070409428</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1462,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4449133526.07754</v>
+        <v>5667209667.864266</v>
       </c>
       <c r="F29" t="n">
-        <v>0.14932438235354</v>
+        <v>0.1170890031373801</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04007773715958144</v>
+        <v>0.0425487433626562</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>40</v>
+      </c>
+      <c r="J29" t="n">
+        <v>45</v>
+      </c>
+      <c r="K29" t="n">
+        <v>240.1955727162355</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1478824652.701728</v>
+        <v>1635219338.276672</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1389736980222877</v>
+        <v>0.09146374091886414</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03942147699510211</v>
+        <v>0.03399969984186402</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1138053710.472167</v>
+        <v>1486709035.579184</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06976666113205554</v>
+        <v>0.07555971684423476</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03599045263741775</v>
+        <v>0.05128294134649297</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1563,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1378180400.418378</v>
+        <v>1742265851.136291</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09964586053832124</v>
+        <v>0.1204717779956142</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03745443042497158</v>
+        <v>0.02464516834833288</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1604,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2408777054.14959</v>
+        <v>2031584426.724084</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1344647501325499</v>
+        <v>0.1694326436413676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04430435067014658</v>
+        <v>0.03979121950645049</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1062318205.554513</v>
+        <v>1233755165.037483</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09161559218810582</v>
+        <v>0.1169237306178547</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02549548596635789</v>
+        <v>0.017904287068507</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1256446124.553122</v>
+        <v>820935234.4784635</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1068437711543303</v>
+        <v>0.07221544532498191</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03924209584536081</v>
+        <v>0.04170416896149418</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2878147028.864832</v>
+        <v>2766257036.052643</v>
       </c>
       <c r="F36" t="n">
-        <v>0.174041650311867</v>
+        <v>0.1794199749505083</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02114329621538033</v>
+        <v>0.02177535401433395</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1873534285.964044</v>
+        <v>2491763817.428649</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1026275057266485</v>
+        <v>0.1078627907831714</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03147085661883146</v>
+        <v>0.04216297428506573</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1773,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2181670145.296599</v>
+        <v>1470933213.71316</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1101829970281916</v>
+        <v>0.111313594472006</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03346246354429593</v>
+        <v>0.02607236276862462</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1759975428.669708</v>
+        <v>1852084175.468355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1790200943661416</v>
+        <v>0.1843977640246039</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03188201069251273</v>
+        <v>0.02694138973457661</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1849,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1365446689.856122</v>
+        <v>1125203485.260522</v>
       </c>
       <c r="F40" t="n">
-        <v>0.158694150956316</v>
+        <v>0.1379674509488703</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03761992620887846</v>
+        <v>0.05593893879654058</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2605677259.106473</v>
+        <v>2828885713.840351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1606124102633994</v>
+        <v>0.1058804761925694</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04620300727705828</v>
+        <v>0.04446930118467676</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1919,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4198697270.430275</v>
+        <v>2718013695.366034</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09429921784805213</v>
+        <v>0.09743456887887227</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03110779110951972</v>
+        <v>0.03039767725917166</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44</v>
+      </c>
+      <c r="K42" t="n">
+        <v>88.6746545242469</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1950,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1961287480.136077</v>
+        <v>2742886298.140689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1688110929688427</v>
+        <v>0.2038162914117468</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01592290424498386</v>
+        <v>0.02527182798340881</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1985,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2288541602.068033</v>
+        <v>1890160954.781437</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0822162378059403</v>
+        <v>0.07947373722508562</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0299202637247257</v>
+        <v>0.02821736481231758</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2020,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1747505549.106429</v>
+        <v>1736196206.937025</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1222296406059696</v>
+        <v>0.1434378100514067</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05183165021477217</v>
+        <v>0.03730896574511878</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2055,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4953249579.726587</v>
+        <v>3591239841.153166</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1114812498146125</v>
+        <v>0.1463333162021374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05716924881699739</v>
+        <v>0.05268667408075383</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>27</v>
+      </c>
+      <c r="J46" t="n">
+        <v>45</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3173567190.661197</v>
+        <v>4199876280.137842</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1969057899681443</v>
+        <v>0.192584656882661</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0554069023564125</v>
+        <v>0.05824091589430601</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>44</v>
+      </c>
+      <c r="K47" t="n">
+        <v>181.5874229429275</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2127,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2895100737.913353</v>
+        <v>4284160936.276531</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06969691348618014</v>
+        <v>0.08025827189109142</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03925868268818773</v>
+        <v>0.02958812349942344</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44</v>
+      </c>
+      <c r="K48" t="n">
+        <v>206.9755639100461</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2164,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1690063018.33534</v>
+        <v>1840981960.528626</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1423291645459083</v>
+        <v>0.1819769166895862</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04196205402541769</v>
+        <v>0.04389764210521588</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2199,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3666618527.287885</v>
+        <v>3055137024.580246</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1561049486808692</v>
+        <v>0.1692060839526683</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03496332898323334</v>
+        <v>0.03975039467874455</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>43</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2234,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1222418665.907559</v>
+        <v>1530114248.30753</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1243793482020212</v>
+        <v>0.126139802829615</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05350695271185176</v>
+        <v>0.03350121491039774</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2269,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4441037700.982597</v>
+        <v>3833969308.95036</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08641660577717308</v>
+        <v>0.1224413750176295</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05220600289564521</v>
+        <v>0.05726013823678142</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>35</v>
+      </c>
+      <c r="J52" t="n">
+        <v>44</v>
+      </c>
+      <c r="K52" t="n">
+        <v>193.82004647829</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2306,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3589249253.186374</v>
+        <v>2472279210.956639</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1640336905469666</v>
+        <v>0.143015851539683</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03260158578391206</v>
+        <v>0.02735775814180165</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2341,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3463614288.591581</v>
+        <v>4306588202.845975</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1135965437997806</v>
+        <v>0.119534587600445</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04114804055706014</v>
+        <v>0.0344604776387046</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>19</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2382,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4944456018.169075</v>
+        <v>4348808846.40897</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2020177878561085</v>
+        <v>0.2243247875578327</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02020847015938597</v>
+        <v>0.02713154891507931</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>21</v>
+      </c>
+      <c r="J55" t="n">
+        <v>45</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1558635225.157995</v>
+        <v>1421353973.758323</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1433773605796525</v>
+        <v>0.1616347174122139</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04939595163272346</v>
+        <v>0.03569144001221403</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2446,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3139253916.692507</v>
+        <v>3862644439.984355</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1496871780565026</v>
+        <v>0.1757161780723003</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02122121727535757</v>
+        <v>0.02676543975028279</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>45</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1781654338.077403</v>
+        <v>1404416116.26808</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1716839204819413</v>
+        <v>0.1472871539502726</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03514401131470607</v>
+        <v>0.0346279434466331</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2516,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3500198050.285191</v>
+        <v>4639760859.997933</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137858368252909</v>
+        <v>0.07925156175046449</v>
       </c>
       <c r="G59" t="n">
-        <v>0.032000642303226</v>
+        <v>0.04376166902099478</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21</v>
+      </c>
+      <c r="J59" t="n">
+        <v>45</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3691469916.879892</v>
+        <v>2596977537.381607</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1649833205289344</v>
+        <v>0.1969014272105754</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03342385527688942</v>
+        <v>0.03180861320071678</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2309884016.825081</v>
+        <v>3192757934.414869</v>
       </c>
       <c r="F61" t="n">
-        <v>0.122521155603823</v>
+        <v>0.1537960450513189</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02805519567588293</v>
+        <v>0.0305635984465087</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1656131372.328449</v>
+        <v>1873455859.633509</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1497339460930112</v>
+        <v>0.1466608770175806</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04622997349152656</v>
+        <v>0.04784164344790885</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2656,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3628524347.281802</v>
+        <v>4853908323.288339</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1040670244841708</v>
+        <v>0.08563121071922958</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04594351570769905</v>
+        <v>0.03711780605716086</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>44</v>
+      </c>
+      <c r="K63" t="n">
+        <v>192.7736606087511</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4449271011.597695</v>
+        <v>3951194831.256917</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1773918529259616</v>
+        <v>0.1289185885360178</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02257826613735558</v>
+        <v>0.03412718581877523</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>22</v>
+      </c>
+      <c r="J64" t="n">
+        <v>45</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3702632452.26791</v>
+        <v>4681283687.530757</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1568582413642014</v>
+        <v>0.1192603521161589</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0266479767036988</v>
+        <v>0.02738643190741935</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>37</v>
+      </c>
+      <c r="J65" t="n">
+        <v>45</v>
+      </c>
+      <c r="K65" t="n">
+        <v>211.6480321675403</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3661075676.529893</v>
+        <v>5374355962.03811</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1103780793218817</v>
+        <v>0.1271395352852316</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04807285972418977</v>
+        <v>0.03439682518827841</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>22</v>
+      </c>
+      <c r="J66" t="n">
+        <v>45</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2281961989.825176</v>
+        <v>2995651438.338467</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09207445254277227</v>
+        <v>0.09911793036199994</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03214185321362314</v>
+        <v>0.04582452332266284</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5273020084.689127</v>
+        <v>3911241072.628844</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1594309682307872</v>
+        <v>0.1154393596313944</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03888301591950675</v>
+        <v>0.04498041257279765</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>22</v>
+      </c>
+      <c r="J68" t="n">
+        <v>45</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1647587086.342818</v>
+        <v>1505080211.699098</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1515679045954665</v>
+        <v>0.1486300029056226</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0572519004118496</v>
+        <v>0.05922555445425509</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3593644289.195625</v>
+        <v>3545148584.979419</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07420359395608978</v>
+        <v>0.09454137278440886</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0440990852228447</v>
+        <v>0.04521299418058219</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>35</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4521944786.889719</v>
+        <v>4979098773.145242</v>
       </c>
       <c r="F71" t="n">
-        <v>0.177358269082301</v>
+        <v>0.1360783599231454</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0264667418194078</v>
+        <v>0.02782253988644094</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>36</v>
+      </c>
+      <c r="J71" t="n">
+        <v>45</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1942520284.3727</v>
+        <v>1570251297.08555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09502037983335228</v>
+        <v>0.0912650310197977</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03786408954036333</v>
+        <v>0.0423394572668073</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3016,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3113779295.67977</v>
+        <v>3425394311.445738</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09990687063040753</v>
+        <v>0.07248329760541043</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03873580377268119</v>
+        <v>0.03373858809995703</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3224124919.195875</v>
+        <v>3558413297.780709</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1120495789116666</v>
+        <v>0.1778484743861423</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0230394694980179</v>
+        <v>0.03424532028750334</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
+      <c r="K74" t="n">
+        <v>155.8694627999144</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1857804856.490856</v>
+        <v>1623593943.117194</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1105825593935988</v>
+        <v>0.112508019940555</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02483499496395598</v>
+        <v>0.03721970261363793</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5111897114.919167</v>
+        <v>3606845801.918195</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08827223707436541</v>
+        <v>0.09997082795868023</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02568129484850071</v>
+        <v>0.02328564087383781</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>21</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2239082854.590777</v>
+        <v>1449819274.494608</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1144016107945678</v>
+        <v>0.1401464088224169</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02232266247822674</v>
+        <v>0.0221871255091183</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4704085732.558171</v>
+        <v>4139308912.811624</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1169491577417345</v>
+        <v>0.1138862077726199</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04447881950497917</v>
+        <v>0.05462369198234014</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>19</v>
+      </c>
+      <c r="J78" t="n">
+        <v>44</v>
+      </c>
+      <c r="K78" t="n">
+        <v>210.176421474074</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1359499317.501745</v>
+        <v>1237010014.747093</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1454610215777716</v>
+        <v>0.1294698119564517</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03956962445230812</v>
+        <v>0.02774258895124779</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3761325231.798283</v>
+        <v>4098482326.975227</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09586742644396874</v>
+        <v>0.1069287137150192</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0252608383102925</v>
+        <v>0.03084918756602477</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>21</v>
+      </c>
+      <c r="J80" t="n">
+        <v>45</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3300,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3900956522.532826</v>
+        <v>3282947093.283597</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08763035076031281</v>
+        <v>0.1329065200898946</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02758609034375826</v>
+        <v>0.02932049897350041</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>44</v>
+      </c>
+      <c r="K81" t="n">
+        <v>106.1039689879675</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4307922811.516433</v>
+        <v>4405808684.208166</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1888343576499048</v>
+        <v>0.1364608070726802</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02742494193144479</v>
+        <v>0.0244954961743383</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>26</v>
+      </c>
+      <c r="J82" t="n">
+        <v>45</v>
+      </c>
+      <c r="K82" t="n">
+        <v>212.0874368008291</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1837158688.187667</v>
+        <v>2268026111.980147</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1533976416987625</v>
+        <v>0.1304244339229969</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02760548692276855</v>
+        <v>0.0412403763299574</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2388810978.925382</v>
+        <v>2016482880.001699</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1172152314212779</v>
+        <v>0.0906740384961279</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04432297161588821</v>
+        <v>0.03612698587269551</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2237777635.362523</v>
+        <v>2527089040.006774</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1334759875002728</v>
+        <v>0.1707204808926119</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04090097785468839</v>
+        <v>0.04517773838363669</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2670150453.884977</v>
+        <v>2788997820.051439</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1563701286406751</v>
+        <v>0.1355660226146159</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02671400550794402</v>
+        <v>0.02392270396557056</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>921532204.5566865</v>
+        <v>1323810797.770247</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1237644990571164</v>
+        <v>0.1411585156097748</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03120388215790158</v>
+        <v>0.04340115742623903</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2293362905.169939</v>
+        <v>3052928282.534702</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1490013444783398</v>
+        <v>0.1415506487731578</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03955086382337519</v>
+        <v>0.0297975923215981</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>42</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2274851834.341975</v>
+        <v>2596979190.920206</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1195086902896528</v>
+        <v>0.1215822785519332</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03390594793016181</v>
+        <v>0.03624932033795015</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1429488926.267319</v>
+        <v>1936069788.2013</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0995684122523024</v>
+        <v>0.09030340918751284</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05028038649065109</v>
+        <v>0.0555776146192034</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1954605916.783586</v>
+        <v>1879571205.281554</v>
       </c>
       <c r="F91" t="n">
-        <v>0.181064003120171</v>
+        <v>0.1767732929174041</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03745638164735197</v>
+        <v>0.05098192970561083</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1972878672.378514</v>
+        <v>1892222343.564878</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1045259258663993</v>
+        <v>0.08005683738952638</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04522473845873527</v>
+        <v>0.04037720895185374</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4502465573.994101</v>
+        <v>3144859462.372495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1123052317042069</v>
+        <v>0.1272606561952084</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03764607584909802</v>
+        <v>0.05313859514113701</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>43</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2058836039.57396</v>
+        <v>1544162118.310285</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1331231693625229</v>
+        <v>0.1654947716082373</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03989457712991427</v>
+        <v>0.03293400378654993</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3076351899.98233</v>
+        <v>2257393096.868238</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1136952811722205</v>
+        <v>0.1196178010372937</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03949290056063139</v>
+        <v>0.03713736779463941</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2037582134.311513</v>
+        <v>2055802155.25549</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1191108518098776</v>
+        <v>0.09475109398257789</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04127594675239957</v>
+        <v>0.03940196211725869</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5008283818.747706</v>
+        <v>4343636948.553222</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1269533005906513</v>
+        <v>0.1599699429218305</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02617565673076552</v>
+        <v>0.02023561595273217</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>44</v>
+      </c>
+      <c r="K97" t="n">
+        <v>207.7869398196942</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3567530511.939425</v>
+        <v>2663174863.080932</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1282576860271284</v>
+        <v>0.1105998725222506</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02338278607540385</v>
+        <v>0.01984170275402479</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2387387158.360279</v>
+        <v>2686212850.634524</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1007607613372769</v>
+        <v>0.1418627135898546</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03465256705547363</v>
+        <v>0.02564946561717598</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3793780149.467845</v>
+        <v>3337084425.625585</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1218185872329008</v>
+        <v>0.1742374944305376</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02333914645659195</v>
+        <v>0.01879574466193632</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2920774374.386487</v>
+        <v>2598590031.512501</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1668314392367576</v>
+        <v>0.1729963012264993</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05264610335091783</v>
+        <v>0.0469483788556224</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
